--- a/biology/Médecine/Théodore_Herpin/Théodore_Herpin.xlsx
+++ b/biology/Médecine/Théodore_Herpin/Théodore_Herpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore-Joseph-Dieudonné Herpin, né le 27 août 1799 à Lyon, décédé le 17 juillet 1865 à Paris (Ville-d'Avray[1]), est un neurologue franco-suisse ayant travaillé sur l'épilepsie. Il a particulièrement décrit l'épilepsie myoclonique juvénile[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore-Joseph-Dieudonné Herpin, né le 27 août 1799 à Lyon, décédé le 17 juillet 1865 à Paris (Ville-d'Avray), est un neurologue franco-suisse ayant travaillé sur l'épilepsie. Il a particulièrement décrit l'épilepsie myoclonique juvénile.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père Louis Herpin (1763-1836), fils de Michèle Coudray et Louis Herpin, huissier au Châtelet de Paris puis procureur et notaire à Château-la-Vallière est commissaire des guerres du Premier Empire puis devenu genevois par le traité de 1815[3].
-Herpin commence ses études à l’Académie de Genève entre 1814 et 1818, puis à l’école pratique de médecine à Paris. Il obtient son doctorat en médecine en 1823 avec une thèse sur la pleurésie chronique. Il est nommé agrégé à Genève[4].
-Il est tout d'abord médecin à Carouge de 1823 à 1838 puis à Genève de 1838 à 1856. Il devient membre du Conseil représentatif de Genève en 1827 et le restera jusqu'en 1841. Il est député au Grand Conseil du canton de Genève de 1845 à 1848 et vice-président du Conseil de santé en 1845[1]. Il est également cofondateur et président de la Société médicale de Genève[5].
-Il est élu le 3 janvier 1856 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Correspondant[6].
-Il était le médecin de Rodolphe Töpffer[7] et Dostoïevski l'aurait consulté en 1863 à Genève[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père Louis Herpin (1763-1836), fils de Michèle Coudray et Louis Herpin, huissier au Châtelet de Paris puis procureur et notaire à Château-la-Vallière est commissaire des guerres du Premier Empire puis devenu genevois par le traité de 1815.
+Herpin commence ses études à l’Académie de Genève entre 1814 et 1818, puis à l’école pratique de médecine à Paris. Il obtient son doctorat en médecine en 1823 avec une thèse sur la pleurésie chronique. Il est nommé agrégé à Genève.
+Il est tout d'abord médecin à Carouge de 1823 à 1838 puis à Genève de 1838 à 1856. Il devient membre du Conseil représentatif de Genève en 1827 et le restera jusqu'en 1841. Il est député au Grand Conseil du canton de Genève de 1845 à 1848 et vice-président du Conseil de santé en 1845. Il est également cofondateur et président de la Société médicale de Genève.
+Il est élu le 3 janvier 1856 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Correspondant.
+Il était le médecin de Rodolphe Töpffer et Dostoïevski l'aurait consulté en 1863 à Genève.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout comme Louis Delasiauve (1804-1893), Théodore Herpin décrit différents types d’épilepsie, distinguant les crises généralisées des crises partielles. Ils décrivent des prodromes avertissant le malade de la survenue d’une crise, notamment des bâillements réitérés[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme Louis Delasiauve (1804-1893), Théodore Herpin décrit différents types d’épilepsie, distinguant les crises généralisées des crises partielles. Ils décrivent des prodromes avertissant le malade de la survenue d’une crise, notamment des bâillements réitérés.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Du pronostic et du traitement curatif de l'épilepsie (Paris, 1852), couronné par l'Académie des Sciences
 Nouveaux rapports à établir entre clients et médecins (Paris, 1864)
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le père de l'écrivaine et historienne Luce Herpin, nom de plume Lucien Perey.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Herpin</t>
+          <t>Théodore_Herpin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,11 +660,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Académie des sciences, belles-lettres et arts de Savoie : membre correspondant, 1856.
 Société médicale de Genève : membre fondateur.
-Membre du comité du Conservatoire de musique de Genève (1835-1849)[1].</t>
+Membre du comité du Conservatoire de musique de Genève (1835-1849).</t>
         </is>
       </c>
     </row>
